--- a/600_iir_llpf_calc_hilbert.xlsx
+++ b/600_iir_llpf_calc_hilbert.xlsx
@@ -473,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -484,7 +484,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -528,7 +528,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>2513.2741228718346</v>
+        <v>942.47779607693792</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -555,7 +555,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>2519.6735095466115</v>
+        <v>942.81437989361052</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -570,7 +570,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>0.17497732705184801</v>
+        <v>6.5473220825945172E-2</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -582,7 +582,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.174977327051848</v>
+        <v>2.065473220825945</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -591,7 +591,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.825022672948152</v>
+        <v>1.9345267791740548</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -600,7 +600,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.83909963117728004</v>
+        <v>0.93660220799206151</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -612,7 +612,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>8.0450184411359996E-2</v>
+        <v>3.1698896003969315E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -624,7 +624,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>8.0450184411359996E-2</v>
+        <v>3.1698896003969315E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -635,8 +635,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <f>1/8</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -662,7 +661,7 @@
       </c>
       <c r="B20" s="1">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>330</v>
+        <v>1039</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -674,7 +673,7 @@
       </c>
       <c r="B21" s="1">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>330</v>
+        <v>1039</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -686,7 +685,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUND(B19*B12,0)</f>
-        <v>27496</v>
+        <v>30691</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>

--- a/600_iir_llpf_calc_hilbert.xlsx
+++ b/600_iir_llpf_calc_hilbert.xlsx
@@ -473,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -484,7 +484,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/600_iir_llpf_calc_hilbert.xlsx
+++ b/600_iir_llpf_calc_hilbert.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="105" windowWidth="13575" windowHeight="17880"/>
+    <workbookView xWindow="2175" yWindow="105" windowWidth="13575" windowHeight="17880" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
+    <sheet name="LoopFilter LPF - 14400Hz" sheetId="4" r:id="rId1"/>
+    <sheet name="LoopFilter LPF -7200hz" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>cutoff freq</t>
   </si>
@@ -473,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -696,7 +697,236 @@
         <v>26</v>
       </c>
       <c r="B27" t="e">
-        <f>ROUND(SQRT(#REF!*(#REF!-'LoopFilter LPF'!B2)),0)</f>
+        <f>ROUND(SQRT(#REF!*(#REF!-'LoopFilter LPF - 14400Hz'!B2)),0)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>2*PI()*B2</f>
+        <v>942.47779607693792</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>1/B3</f>
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>(2*B3)*TAN(B4*B5/2)</f>
+        <v>943.82586453943043</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>B6*B5</f>
+        <v>0.13108692563047644</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>2+(B8)</f>
+        <v>2.1310869256304765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f>2-B8</f>
+        <v>1.8689130743695235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f>B10/B9</f>
+        <v>0.87697646299275678</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f>B8/B9</f>
+        <v>6.1511768503621556E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f>B8/B9</f>
+        <v>6.1511768503621556E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <f>POWER(2,B18)</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <f>ROUND(B19*B13*B16,0)</f>
+        <v>2016</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <f>ROUND(B19*B14*B16,0)</f>
+        <v>2016</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <f>ROUND(B19*B12,0)</f>
+        <v>28737</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="e">
+        <f>ROUND(SQRT(#REF!*(#REF!-'LoopFilter LPF -7200hz'!B2)),0)</f>
         <v>#REF!</v>
       </c>
     </row>
